--- a/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
+++ b/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Launcher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDE10BB-13C1-4A77-9579-74F81FA2D250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2AEA36-8115-44B1-B66F-E23DDD7EDE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>TXT_OPEN_PROJECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TXT_NEW_PROJECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,11 +35,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>New Project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open Project</t>
+    <t>TXT_FILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_NEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_NEW_SCENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Scene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -405,26 +413,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
+++ b/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2AEA36-8115-44B1-B66F-E23DDD7EDE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFBE194-D470-49EA-B0EA-F538328E745D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="38370" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,70 @@
   </si>
   <si>
     <t>New Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_GAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SCENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_HIERARCHY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_INSPECTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_PROJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CONSOLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hierarchy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inspector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Console</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_WINDOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_PANELS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panels</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -443,6 +507,70 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
+++ b/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFBE194-D470-49EA-B0EA-F538328E745D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3CB28E-5391-4281-84DD-6613D10082BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="38370" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,94 @@
   </si>
   <si>
     <t>Panels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_OPEN_SCENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_OPEN_RECENT_SCENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Recent Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SAVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SAVE_AS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SAVE_AS_SCENE_TEMPLATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save As Scene Template...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_NEW_PROJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_OPEN_PROJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save As…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Project…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SAVE_PROJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save Project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_BUILD_SETTINGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build Settings…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_BUILD_AND_RUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build And Run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_EXIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,16 +551,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.9140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -571,6 +659,94 @@
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
+++ b/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3CB28E-5391-4281-84DD-6613D10082BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDF9926-CA51-49E9-8A24-1CD9DEFE1F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,22 @@
   </si>
   <si>
     <t>Exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_LAYOUTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layouts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_RESET_ALL_LAYOUTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset All Layouts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A24" sqref="A24:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -747,6 +763,22 @@
         <v>45</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
+++ b/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDF9926-CA51-49E9-8A24-1CD9DEFE1F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DEF57A-9698-40A4-9604-0931F4AC66FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Save As Scene Template...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TXT_NEW_PROJECT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Save As…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Open Project…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,6 +216,230 @@
   </si>
   <si>
     <t>Reset All Layouts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_EDIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_UNDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_REDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SELECT_ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_DESELECT_ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deselect All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SELECT_CHILDREN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Children</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SELECT_PREFAB_ROOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Prefab Root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_INSERT_SELECTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert Selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_COPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_PASTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_DUPLICATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_RENAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_FRAME_SELECTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frame Selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_LOCK_VIEW_TO_SELECTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock View to Selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_FIND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SEARCH_ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_PLAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_PAUSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_STOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SELECTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_PROJECT_SETTINGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_PREFERENCES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save As Scene Template ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search All …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save As …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Settings …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preferences …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SHORTCUTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shortcuts …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear All PlayerPrefs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CLEAR_ALL_PLAYERPREFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_GRAPHICS_TIER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graphics Tier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B25"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -704,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -712,71 +928,287 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
+++ b/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DEF57A-9698-40A4-9604-0931F4AC66FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EF97B8-8094-4A23-B9D7-5CEE837371E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,6 +440,214 @@
   </si>
   <si>
     <t>Graphics Tier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_GRAPHICS_TIER_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shader Hardware Tier 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_GRAPHICS_TIER_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_GRAPHICS_TIER_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shader Hardware Tier 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shader Hardware Tier 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_LOAD_SELECTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SAVE_SELECTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CREATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SHOW_IN_EXPLORER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show in Explorer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_OPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_COPY_PATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_OPEN_SCENE_ADDITIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Scene Additive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_VIEW_IN_PACKAGE_MANAGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View in Package Manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_IMPORT_NEW_ASSET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_IMPORT_PACKAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import New Asset …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import Package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_EXPORT_PACKAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Export Package…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_FIND_REFERENCES_IN_SCENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find References In Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_FIND_REFERENCES_IN_PROJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find References In Project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SELECT_DEPENDENCIES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Dependencies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_REFRESH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_REIMPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reimport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_REIMPORT_ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reimport All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_EXTRACT_FROM_PREFAB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extract From Prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_UPDATE_UXML_SCHEMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update UXML Schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CACHE_SERVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_OPEN_CPP_PROJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open C++ Project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_VIEW_IN_IMPORT_ACTIVITY_WINDOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View in Import Activity Window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_PROPERTIES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Properties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load Selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save Selection</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,16 +991,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1173,42 +1381,250 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>102</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
+++ b/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EF97B8-8094-4A23-B9D7-5CEE837371E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61E8E49-CBA2-49AF-8BA1-8DD61FF72B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -648,6 +648,14 @@
   </si>
   <si>
     <t>Save Selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_ASSETS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1461,169 +1469,177 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>152</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>153</v>
       </c>
     </row>

--- a/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
+++ b/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61E8E49-CBA2-49AF-8BA1-8DD61FF72B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F0F8C4-AD46-46F4-A1A9-BD67780F6513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -656,6 +656,182 @@
   </si>
   <si>
     <t>Assets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CREATE_EMPTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CREATE_EMPTY_CHILD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Empty Child</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CREATE_EMPTY_PARENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Empty Parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_3D_OBJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_EFFECTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_LIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_AUDIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_VIDEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_UI_TOOLKIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI Toolkit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CAMERA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_VISUAL_SCRIPTING_SCENE_VARAIBLES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visual Scripting Scene Varaibles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CENTER_ON_CHILDREN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Center On Children</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_MAKE_PARENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make Parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CLEAR_PARENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear Parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SET_AS_FIRST_SIBLING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set as first sibling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SET_AS_LAST_SIBLING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set as last sibling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_MOVE_TO_VIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move To View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_ALIGN_WITH_VIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_ALIGN_VIEW_TO_SELECTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Align With View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Align View to Selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_TOGGLE_ACTIVE_STATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toggle Active State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_GAMEOBJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObject</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -999,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1643,6 +1819,182 @@
         <v>153</v>
       </c>
     </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>200</v>
+      </c>
+      <c r="B80" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
+++ b/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F0F8C4-AD46-46F4-A1A9-BD67780F6513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083B000F-40BF-41EC-8378-114FCE05AB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -832,6 +832,246 @@
   </si>
   <si>
     <t>GameObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_COMPONENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_MESH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_PHYSICS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_PHYSICS_2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physics 2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_NAVIGATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Navigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_RENDERING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rendering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_TILEMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tilemap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_LAYOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Playables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_PLAYABLES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_MISCELLANEOUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SCRIPTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scripts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_VISUAL_SCRIPTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visual Scripting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_EVENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_NEXT_WINDOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_PREV_WINDOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous Window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SEARCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Package Manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_PACKAGE_MANAGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_ASSET_MANAGEMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_TEXT_MESH_PRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextMeshPro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_GENERAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_ANIMATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SEQUENCING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sequencing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_ANALYSIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_HELP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Help</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_ABOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>About</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_USER_MANUAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_API_DOCUMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API Document</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1175,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116:B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1995,6 +2235,246 @@
         <v>199</v>
       </c>
     </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" t="s">
+        <v>261</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
+++ b/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083B000F-40BF-41EC-8378-114FCE05AB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62365457-3822-46BC-80B1-345A142D3609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="324">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1072,6 +1072,254 @@
   </si>
   <si>
     <t>API Document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_FOLDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_TYPE_SCRIPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SHADER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SHADER_VARIANT_COLLECTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shader Variant Collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_TESTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_DYLIB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic Link Library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_DYLIB_REF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic Link Library Reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SCENE_TEMPLATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene Template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SCENE_TEMPLATE_FROM_SCENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene Template From Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SCENE_TEMPLATE_PIPELINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene Template Pipeline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_PREFAB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_PREFAB_VARIANT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab Variant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_AUDIO_MIXER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio Mixer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_MATERIAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_LENS_FLARE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lens Flare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_RENDER_TEXTURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Render Texture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_LIGHTMAP_PARAMETERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightmap Parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_LIGHTING_SETTINGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lighting Settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CUSTOM_RENDER_TEXTURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Custom Render Texture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_ANIMATOR_CONTROLLER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animator Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_ANIMATOR_OVERRIDE_CONTROLLER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animator Override Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_AVATAR_MASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avatar Mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_TIMELINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SIGNAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_PHYSIC_MATERIAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physic Material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_GUI_SKIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI Skin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CUSTOM_FONT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Custom Font</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_LEGACY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_BRUSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_TERRAIN_LAYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terrain Layer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1415,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116:B131"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2475,6 +2723,262 @@
         <v>261</v>
       </c>
     </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>265</v>
+      </c>
+      <c r="B133" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>246</v>
+      </c>
+      <c r="B153" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>320</v>
+      </c>
+      <c r="B162" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>322</v>
+      </c>
+      <c r="B163" t="s">
+        <v>323</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
+++ b/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62365457-3822-46BC-80B1-345A142D3609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C977603-5CD0-4918-AA38-E17E51633E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1320,6 +1320,78 @@
   </si>
   <si>
     <t>Terrain Layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CUSTOM_PACKAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Custom Package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_PHYSICS_MATERIAL_2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physics Material 2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_STATE_GRAPH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SCRIPT_GRAPH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_STANDARD_SURFACE_SHADER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard Surface Shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_UNLIT_SHADER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlit Shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_IMAGE_EFFECT_SHADER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Effect Shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_COMPUTE_SHADER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compute Shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_RAY_TRACING_SHADER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ray Tracing Shader</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1663,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B163"/>
+  <dimension ref="A1:B171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153:XFD153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2893,90 +2965,154 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="B153" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B155" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B156" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B157" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B158" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B159" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B160" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B161" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B162" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B163" t="s">
-        <v>323</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>326</v>
+      </c>
+      <c r="B164" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>328</v>
+      </c>
+      <c r="B165" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>330</v>
+      </c>
+      <c r="B166" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>332</v>
+      </c>
+      <c r="B167" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>334</v>
+      </c>
+      <c r="B168" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>336</v>
+      </c>
+      <c r="B169" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>340</v>
+      </c>
+      <c r="B171" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
+++ b/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C977603-5CD0-4918-AA38-E17E51633E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2DF25A-146B-42CB-A603-76F25E3E5290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="38370" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1737,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153:XFD153"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172:B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
+++ b/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2DF25A-146B-42CB-A603-76F25E3E5290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5C5FDD-03F8-4C1A-B24F-FAF9B63C3091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="38370" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1392,6 +1392,22 @@
   </si>
   <si>
     <t>Ray Tracing Shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CUBE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SPHERE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1735,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B171"/>
+  <dimension ref="A1:B173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172:B177"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2421,697 +2437,713 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>344</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>345</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B92" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B94" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B96" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B97" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B100" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B104" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B105" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B106" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B110" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B112" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B114" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B115" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B116" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B117" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B118" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B120" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B121" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B122" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B123" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B124" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B125" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B126" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B127" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B128" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B129" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B130" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B131" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B132" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B134" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B135" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B136" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B137" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B138" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B139" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B140" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B141" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B142" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B143" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B144" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B145" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B146" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B147" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B148" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B149" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B150" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B151" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B152" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B153" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B154" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B155" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B156" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B157" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B158" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B159" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B160" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B161" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B162" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B163" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B164" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B165" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B166" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B167" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B168" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B169" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B170" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
+        <v>336</v>
+      </c>
+      <c r="B171" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>338</v>
+      </c>
+      <c r="B172" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>340</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B173" t="s">
         <v>341</v>
       </c>
     </row>

--- a/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
+++ b/source/Tools/LanguageGenerator/Editor/lang-en-us.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Tiny3D\source\Tools\LanguageGenerator\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5C5FDD-03F8-4C1A-B24F-FAF9B63C3091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9477BED5-35C7-47F7-BD45-290694E25EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1408,6 +1409,78 @@
   </si>
   <si>
     <t>TXT_SPHERE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CANCEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SAVE_EXIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CLOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save And Exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_WARNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_HINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_HINT_UNSAVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unsave files. Sure to exit?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1751,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B173"/>
+  <dimension ref="A1:B182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3147,6 +3220,78 @@
         <v>341</v>
       </c>
     </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>347</v>
+      </c>
+      <c r="B175" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>348</v>
+      </c>
+      <c r="B176" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>355</v>
+      </c>
+      <c r="B179" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>356</v>
+      </c>
+      <c r="B180" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>357</v>
+      </c>
+      <c r="B181" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182" t="s">
+        <v>363</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
